--- a/src/test/resources/post/네이버_cu_대량발송.xlsx
+++ b/src/test/resources/post/네이버_cu_대량발송.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>수취인명 (30Byte)</t>
   </si>
@@ -44,10 +44,7 @@
     <t>12506</t>
   </si>
   <si>
-    <t>경기도 양평군 옥천면 장알재길 23-14 (옥천면)</t>
-  </si>
-  <si>
-    <t>사자레스텔</t>
+    <t>경기도 양평군 옥천면 장알재길 23-14 (옥천면) 사자레스텔</t>
   </si>
   <si>
     <t>0502-2897-8738</t>
@@ -56,7 +53,7 @@
     <t/>
   </si>
   <si>
-    <t>파이리 1 초크볼(85g) 1 위병소에 택배함 있습니다</t>
+    <t>초크볼(85g) 1 파이리 1 위병소에 택배함 있습니다</t>
   </si>
   <si>
     <t>선불</t>
@@ -68,10 +65,7 @@
     <t>04606</t>
   </si>
   <si>
-    <t>서울특별시 중구 장충단로6길 54 (장충동1가, 현대중공업 서울 기숙사)</t>
-  </si>
-  <si>
-    <t>한국장학재단 서울센터 1층 404호</t>
+    <t>서울특별시 중구 장충단로6길 54 (장충동1가, 현대중공업 서울 기숙사) 한국장학재단 서울센터 1층 404호</t>
   </si>
   <si>
     <t>010-5720-0247</t>
@@ -86,10 +80,7 @@
     <t>04051</t>
   </si>
   <si>
-    <t>서울특별시 마포구 양화로 188 (동교동, 홍대입구역)</t>
-  </si>
-  <si>
-    <t>4층 네이처랩스</t>
+    <t>서울특별시 마포구 양화로 188 (동교동, 홍대입구역) 4층 네이처랩스</t>
   </si>
   <si>
     <t>0502-3196-6778</t>
@@ -183,71 +174,71 @@
         <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="D4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
